--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL1.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL1.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.011849830537473</v>
+        <v>0.0118498305374729</v>
       </c>
       <c r="E2" t="n">
         <v>0.183730317629449</v>
@@ -471,10 +471,10 @@
         <v>1.45057677483824</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0644957821352705</v>
+        <v>0.0644957821352701</v>
       </c>
       <c r="J2" t="n">
-        <v>0.948575465489736</v>
+        <v>0.948575465489737</v>
       </c>
       <c r="K2" t="n">
         <v>1187</v>
@@ -494,7 +494,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.224271583694575</v>
+        <v>-0.224271583694574</v>
       </c>
       <c r="E3" t="n">
         <v>0.246474509179511</v>
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0515943517690095</v>
+        <v>0.0515943517690097</v>
       </c>
       <c r="E4" t="n">
         <v>0.25151514446382</v>
@@ -570,7 +570,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.366525113202968</v>
+        <v>-0.366525113202967</v>
       </c>
       <c r="E5" t="n">
         <v>0.345901433991464</v>
@@ -588,7 +588,7 @@
         <v>-1.05962299425452</v>
       </c>
       <c r="J5" t="n">
-        <v>0.289316148315915</v>
+        <v>0.289316148315916</v>
       </c>
       <c r="K5" t="n">
         <v>549</v>
@@ -623,7 +623,7 @@
         <v>1.84893959578444</v>
       </c>
       <c r="I6" t="n">
-        <v>0.763763125866875</v>
+        <v>0.763763125866874</v>
       </c>
       <c r="J6" t="n">
         <v>0.445008414745214</v>
@@ -646,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.244477809064539</v>
+        <v>0.244477809064538</v>
       </c>
       <c r="E7" t="n">
         <v>0.309109490786871</v>
@@ -702,7 +702,7 @@
         <v>-0.357328037166466</v>
       </c>
       <c r="J8" t="n">
-        <v>0.720846242991251</v>
+        <v>0.72084624299125</v>
       </c>
       <c r="K8" t="n">
         <v>1187</v>
